--- a/data/input_data_Brazil.xlsx
+++ b/data/input_data_Brazil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA4C4-12C6-4356-9288-4464FAAB8808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CEDB0E-8790-4523-B525-153F1DEBB723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49659,8 +49659,8 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52094,7 +52094,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input_data_Brazil.xlsx
+++ b/data/input_data_Brazil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CEDB0E-8790-4523-B525-153F1DEBB723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A262788-E35A-4C91-BC45-27412194BA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="112">
   <si>
     <t>0-4</t>
   </si>
@@ -432,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +465,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -984,9 +990,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1054,6 +1057,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1500,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1553,7 +1559,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
@@ -1610,7 +1616,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -1669,7 +1675,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
@@ -1726,7 +1732,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -1785,7 +1791,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1848,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="117" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -1901,7 +1907,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1964,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2017,7 +2023,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="44" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2080,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="117" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -2133,7 +2139,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="44" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2196,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -2249,7 +2255,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="44" t="s">
         <v>20</v>
       </c>
@@ -2306,7 +2312,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="117" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="44" t="s">
@@ -2365,7 +2371,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="117" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -2481,7 +2487,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="44" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2544,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="117" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -2597,7 +2603,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
@@ -2654,7 +2660,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="117" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="87" t="s">
@@ -2714,7 +2720,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="87" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2778,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="117" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="87" t="s">
@@ -2848,7 +2854,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
@@ -2922,7 +2928,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="87" t="s">
@@ -2982,7 +2988,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="87" t="s">
         <v>20</v>
       </c>
@@ -3040,7 +3046,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="117" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="87" t="s">
@@ -3116,7 +3122,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="87" t="s">
         <v>21</v>
       </c>
@@ -3190,7 +3196,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="117" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="89" t="s">
@@ -3249,7 +3255,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="89" t="s">
         <v>20</v>
       </c>
@@ -3306,7 +3312,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="117" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="89" t="s">
@@ -3365,7 +3371,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="89" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3428,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="117" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="107" t="s">
@@ -3481,7 +3487,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="107" t="s">
         <v>20</v>
       </c>
@@ -3538,7 +3544,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="117" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="107" t="s">
@@ -3597,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="107" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3660,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="117" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="108" t="s">
@@ -3714,7 +3720,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="108" t="s">
         <v>20</v>
       </c>
@@ -3772,7 +3778,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="117" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="108" t="s">
@@ -3848,7 +3854,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="108" t="s">
         <v>21</v>
       </c>
@@ -3922,7 +3928,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="118" t="s">
+      <c r="A42" s="117" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="108" t="s">
@@ -3981,7 +3987,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="108" t="s">
         <v>20</v>
       </c>
@@ -4038,7 +4044,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="117" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="108" t="s">
@@ -4114,7 +4120,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="108" t="s">
         <v>21</v>
       </c>
@@ -4188,10 +4194,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="111" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="64">
@@ -4248,8 +4254,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="112" t="s">
+      <c r="A47" s="118"/>
+      <c r="B47" s="111" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="64">
@@ -4306,10 +4312,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="111" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="64">
@@ -4382,8 +4388,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
-      <c r="B49" s="112" t="s">
+      <c r="A49" s="118"/>
+      <c r="B49" s="111" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="64">
@@ -4559,7 +4565,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -4618,7 +4624,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4681,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -4732,7 +4738,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -4789,7 +4795,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +4852,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +4909,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -4960,7 +4966,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5023,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5080,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -5131,7 +5137,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -5188,7 +5194,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -5245,7 +5251,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -5302,7 +5308,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -5359,7 +5365,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -5416,7 +5422,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +5479,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -5532,7 +5538,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -5589,7 +5595,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -5646,7 +5652,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -5703,7 +5709,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +5766,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -5817,7 +5823,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -5874,7 +5880,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -5931,7 +5937,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +5994,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -6045,7 +6051,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6108,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -6159,7 +6165,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -6216,7 +6222,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -6273,7 +6279,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -6330,7 +6336,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -6387,7 +6393,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -6446,7 +6452,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6509,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -6560,7 +6566,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -6617,7 +6623,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -6674,7 +6680,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +6737,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -6788,7 +6794,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -6845,7 +6851,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -6902,7 +6908,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -6959,7 +6965,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -7016,7 +7022,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -7073,7 +7079,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7136,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -7187,7 +7193,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -7244,7 +7250,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -7301,7 +7307,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -7360,7 +7366,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -7417,7 +7423,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -7474,7 +7480,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -7531,7 +7537,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -7588,7 +7594,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -7645,7 +7651,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -7702,7 +7708,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="119"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -7759,7 +7765,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="120"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -7816,7 +7822,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -7873,7 +7879,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -7930,7 +7936,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -7987,7 +7993,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -8044,7 +8050,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -8101,7 +8107,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="120"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8164,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -8215,7 +8221,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="119" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -8274,7 +8280,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -8331,7 +8337,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -8388,7 +8394,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -8445,7 +8451,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -8502,7 +8508,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="120"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -8559,7 +8565,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="120"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -8616,7 +8622,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="120"/>
+      <c r="A73" s="119"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -8673,7 +8679,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="120"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -8730,7 +8736,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="120"/>
+      <c r="A75" s="119"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -8787,7 +8793,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="120"/>
+      <c r="A76" s="119"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8850,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="120"/>
+      <c r="A77" s="119"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -8901,7 +8907,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="120"/>
+      <c r="A78" s="119"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -8958,7 +8964,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
+      <c r="A79" s="119"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -9015,7 +9021,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -9072,7 +9078,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="119"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -9129,7 +9135,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -9188,7 +9194,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
+      <c r="A83" s="119"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -9245,7 +9251,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="120"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -9302,7 +9308,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
+      <c r="A85" s="119"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -9359,7 +9365,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="120"/>
+      <c r="A86" s="119"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -9416,7 +9422,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
+      <c r="A87" s="119"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -9473,7 +9479,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
+      <c r="A88" s="119"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -9530,7 +9536,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -9587,7 +9593,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -9644,7 +9650,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -9701,7 +9707,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
+      <c r="A92" s="119"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -9758,7 +9764,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="119"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -9815,7 +9821,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -9872,7 +9878,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -9929,7 +9935,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -9986,7 +9992,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -10043,7 +10049,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="119" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -10102,7 +10108,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -10159,7 +10165,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -10216,7 +10222,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -10273,7 +10279,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="119"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -10330,7 +10336,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="119"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -10387,7 +10393,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="120"/>
+      <c r="A104" s="119"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -10444,7 +10450,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="119"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -10501,7 +10507,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="120"/>
+      <c r="A106" s="119"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -10558,7 +10564,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="120"/>
+      <c r="A107" s="119"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -10615,7 +10621,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="120"/>
+      <c r="A108" s="119"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -10672,7 +10678,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="120"/>
+      <c r="A109" s="119"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -10729,7 +10735,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="120"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -10786,7 +10792,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="119"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -10843,7 +10849,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
+      <c r="A112" s="119"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -10900,7 +10906,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="119"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -10957,7 +10963,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="120" t="s">
+      <c r="A114" s="119" t="s">
         <v>101</v>
       </c>
       <c r="B114" s="89" t="s">
@@ -11016,7 +11022,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="120"/>
+      <c r="A115" s="119"/>
       <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
@@ -11073,7 +11079,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="120"/>
+      <c r="A116" s="119"/>
       <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
@@ -11130,7 +11136,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
+      <c r="A117" s="119"/>
       <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
@@ -11187,7 +11193,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="120"/>
+      <c r="A118" s="119"/>
       <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
@@ -11244,7 +11250,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
@@ -11301,7 +11307,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="120"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
@@ -11358,7 +11364,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
+      <c r="A121" s="119"/>
       <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
@@ -11415,7 +11421,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
+      <c r="A122" s="119"/>
       <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
@@ -11472,7 +11478,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
+      <c r="A123" s="119"/>
       <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
@@ -11529,7 +11535,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
+      <c r="A124" s="119"/>
       <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
@@ -11586,7 +11592,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
+      <c r="A125" s="119"/>
       <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
@@ -11643,7 +11649,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
+      <c r="A126" s="119"/>
       <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
@@ -11700,7 +11706,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
+      <c r="A127" s="119"/>
       <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
@@ -11757,7 +11763,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
@@ -11814,7 +11820,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
+      <c r="A129" s="119"/>
       <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
@@ -11871,7 +11877,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="120" t="s">
+      <c r="A130" s="119" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="107" t="s">
@@ -11930,7 +11936,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
+      <c r="A131" s="119"/>
       <c r="B131" s="107" t="s">
         <v>1</v>
       </c>
@@ -11987,7 +11993,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
+      <c r="A132" s="119"/>
       <c r="B132" s="107" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12050,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
+      <c r="A133" s="119"/>
       <c r="B133" s="107" t="s">
         <v>3</v>
       </c>
@@ -12101,7 +12107,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
+      <c r="A134" s="119"/>
       <c r="B134" s="107" t="s">
         <v>4</v>
       </c>
@@ -12158,7 +12164,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
+      <c r="A135" s="119"/>
       <c r="B135" s="107" t="s">
         <v>5</v>
       </c>
@@ -12215,7 +12221,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
+      <c r="A136" s="119"/>
       <c r="B136" s="107" t="s">
         <v>6</v>
       </c>
@@ -12272,7 +12278,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="120"/>
+      <c r="A137" s="119"/>
       <c r="B137" s="107" t="s">
         <v>7</v>
       </c>
@@ -12329,7 +12335,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="120"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="107" t="s">
         <v>8</v>
       </c>
@@ -12386,7 +12392,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="120"/>
+      <c r="A139" s="119"/>
       <c r="B139" s="107" t="s">
         <v>9</v>
       </c>
@@ -12443,7 +12449,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="120"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="107" t="s">
         <v>10</v>
       </c>
@@ -12500,7 +12506,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="119"/>
       <c r="B141" s="107" t="s">
         <v>11</v>
       </c>
@@ -12557,7 +12563,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
+      <c r="A142" s="119"/>
       <c r="B142" s="107" t="s">
         <v>12</v>
       </c>
@@ -12614,7 +12620,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="120"/>
+      <c r="A143" s="119"/>
       <c r="B143" s="107" t="s">
         <v>13</v>
       </c>
@@ -12671,7 +12677,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="120"/>
+      <c r="A144" s="119"/>
       <c r="B144" s="107" t="s">
         <v>14</v>
       </c>
@@ -12728,7 +12734,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="120"/>
+      <c r="A145" s="119"/>
       <c r="B145" s="107" t="s">
         <v>15</v>
       </c>
@@ -12785,7 +12791,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="120" t="s">
+      <c r="A146" s="119" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="108" t="s">
@@ -12844,7 +12850,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
+      <c r="A147" s="119"/>
       <c r="B147" s="108" t="s">
         <v>1</v>
       </c>
@@ -12901,7 +12907,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
+      <c r="A148" s="119"/>
       <c r="B148" s="108" t="s">
         <v>2</v>
       </c>
@@ -12958,7 +12964,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="120"/>
+      <c r="A149" s="119"/>
       <c r="B149" s="108" t="s">
         <v>3</v>
       </c>
@@ -13015,7 +13021,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="120"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="108" t="s">
         <v>4</v>
       </c>
@@ -13072,7 +13078,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="120"/>
+      <c r="A151" s="119"/>
       <c r="B151" s="108" t="s">
         <v>5</v>
       </c>
@@ -13129,7 +13135,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="119"/>
       <c r="B152" s="108" t="s">
         <v>6</v>
       </c>
@@ -13186,7 +13192,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="120"/>
+      <c r="A153" s="119"/>
       <c r="B153" s="108" t="s">
         <v>7</v>
       </c>
@@ -13243,7 +13249,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="120"/>
+      <c r="A154" s="119"/>
       <c r="B154" s="108" t="s">
         <v>8</v>
       </c>
@@ -13300,7 +13306,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="120"/>
+      <c r="A155" s="119"/>
       <c r="B155" s="108" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13363,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="120"/>
+      <c r="A156" s="119"/>
       <c r="B156" s="108" t="s">
         <v>10</v>
       </c>
@@ -13414,7 +13420,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="120"/>
+      <c r="A157" s="119"/>
       <c r="B157" s="108" t="s">
         <v>11</v>
       </c>
@@ -13471,7 +13477,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
+      <c r="A158" s="119"/>
       <c r="B158" s="108" t="s">
         <v>12</v>
       </c>
@@ -13528,7 +13534,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="120"/>
+      <c r="A159" s="119"/>
       <c r="B159" s="108" t="s">
         <v>13</v>
       </c>
@@ -13585,7 +13591,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="120"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="108" t="s">
         <v>14</v>
       </c>
@@ -13642,7 +13648,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="120"/>
+      <c r="A161" s="119"/>
       <c r="B161" s="108" t="s">
         <v>15</v>
       </c>
@@ -13699,7 +13705,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="120" t="s">
+      <c r="A162" s="119" t="s">
         <v>107</v>
       </c>
       <c r="B162" s="108" t="s">
@@ -13758,7 +13764,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
+      <c r="A163" s="119"/>
       <c r="B163" s="108" t="s">
         <v>1</v>
       </c>
@@ -13815,7 +13821,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="120"/>
+      <c r="A164" s="119"/>
       <c r="B164" s="108" t="s">
         <v>2</v>
       </c>
@@ -13872,7 +13878,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
+      <c r="A165" s="119"/>
       <c r="B165" s="108" t="s">
         <v>3</v>
       </c>
@@ -13929,7 +13935,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="120"/>
+      <c r="A166" s="119"/>
       <c r="B166" s="108" t="s">
         <v>4</v>
       </c>
@@ -13986,7 +13992,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="120"/>
+      <c r="A167" s="119"/>
       <c r="B167" s="108" t="s">
         <v>5</v>
       </c>
@@ -14043,7 +14049,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="120"/>
+      <c r="A168" s="119"/>
       <c r="B168" s="108" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14106,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="120"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="108" t="s">
         <v>7</v>
       </c>
@@ -14157,7 +14163,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="120"/>
+      <c r="A170" s="119"/>
       <c r="B170" s="108" t="s">
         <v>8</v>
       </c>
@@ -14214,7 +14220,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
+      <c r="A171" s="119"/>
       <c r="B171" s="108" t="s">
         <v>9</v>
       </c>
@@ -14271,7 +14277,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="120"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="108" t="s">
         <v>10</v>
       </c>
@@ -14328,7 +14334,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="120"/>
+      <c r="A173" s="119"/>
       <c r="B173" s="108" t="s">
         <v>11</v>
       </c>
@@ -14385,7 +14391,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="120"/>
+      <c r="A174" s="119"/>
       <c r="B174" s="108" t="s">
         <v>12</v>
       </c>
@@ -14442,7 +14448,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="120"/>
+      <c r="A175" s="119"/>
       <c r="B175" s="108" t="s">
         <v>13</v>
       </c>
@@ -14499,7 +14505,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="120"/>
+      <c r="A176" s="119"/>
       <c r="B176" s="108" t="s">
         <v>14</v>
       </c>
@@ -14556,7 +14562,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="120"/>
+      <c r="A177" s="119"/>
       <c r="B177" s="108" t="s">
         <v>15</v>
       </c>
@@ -14613,10 +14619,10 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="120" t="s">
+      <c r="A178" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B178" s="112" t="s">
+      <c r="B178" s="111" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="64">
@@ -14672,8 +14678,8 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="120"/>
-      <c r="B179" s="112" t="s">
+      <c r="A179" s="119"/>
+      <c r="B179" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="64">
@@ -14729,8 +14735,8 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="120"/>
-      <c r="B180" s="112" t="s">
+      <c r="A180" s="119"/>
+      <c r="B180" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="64">
@@ -14786,8 +14792,8 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="120"/>
-      <c r="B181" s="112" t="s">
+      <c r="A181" s="119"/>
+      <c r="B181" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="64">
@@ -14843,8 +14849,8 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="120"/>
-      <c r="B182" s="112" t="s">
+      <c r="A182" s="119"/>
+      <c r="B182" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="64">
@@ -14900,8 +14906,8 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="120"/>
-      <c r="B183" s="112" t="s">
+      <c r="A183" s="119"/>
+      <c r="B183" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="64">
@@ -14957,8 +14963,8 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="120"/>
-      <c r="B184" s="112" t="s">
+      <c r="A184" s="119"/>
+      <c r="B184" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="64">
@@ -15014,8 +15020,8 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="120"/>
-      <c r="B185" s="112" t="s">
+      <c r="A185" s="119"/>
+      <c r="B185" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="64">
@@ -15071,8 +15077,8 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="120"/>
-      <c r="B186" s="112" t="s">
+      <c r="A186" s="119"/>
+      <c r="B186" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="64">
@@ -15128,8 +15134,8 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="120"/>
-      <c r="B187" s="112" t="s">
+      <c r="A187" s="119"/>
+      <c r="B187" s="111" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="64">
@@ -15185,8 +15191,8 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="120"/>
-      <c r="B188" s="112" t="s">
+      <c r="A188" s="119"/>
+      <c r="B188" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="64">
@@ -15242,8 +15248,8 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="120"/>
-      <c r="B189" s="112" t="s">
+      <c r="A189" s="119"/>
+      <c r="B189" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="64">
@@ -15299,8 +15305,8 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="120"/>
-      <c r="B190" s="112" t="s">
+      <c r="A190" s="119"/>
+      <c r="B190" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="64">
@@ -15356,8 +15362,8 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
-      <c r="B191" s="112" t="s">
+      <c r="A191" s="119"/>
+      <c r="B191" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="64">
@@ -15413,8 +15419,8 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="120"/>
-      <c r="B192" s="112" t="s">
+      <c r="A192" s="119"/>
+      <c r="B192" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="64">
@@ -15470,8 +15476,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
-      <c r="B193" s="112" t="s">
+      <c r="A193" s="119"/>
+      <c r="B193" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="64">
@@ -15618,7 +15624,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -15677,7 +15683,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -15734,7 +15740,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -15791,7 +15797,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -15848,7 +15854,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -15905,7 +15911,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -15962,7 +15968,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -16019,7 +16025,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16082,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -16133,7 +16139,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -16190,7 +16196,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -16247,7 +16253,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -16304,7 +16310,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -16361,7 +16367,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -16418,7 +16424,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -16475,7 +16481,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -16532,7 +16538,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -16591,7 +16597,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -16648,7 +16654,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -16705,7 +16711,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -16762,7 +16768,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -16819,7 +16825,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -16876,7 +16882,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -16933,7 +16939,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -16990,7 +16996,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -17047,7 +17053,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -17104,7 +17110,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -17161,7 +17167,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -17218,7 +17224,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -17275,7 +17281,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -17332,7 +17338,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -17389,7 +17395,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -17446,7 +17452,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -17505,7 +17511,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -17562,7 +17568,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -17619,7 +17625,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -17676,7 +17682,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -17733,7 +17739,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -17790,7 +17796,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -17847,7 +17853,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -17904,7 +17910,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -17961,7 +17967,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -18018,7 +18024,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -18075,7 +18081,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -18132,7 +18138,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -18189,7 +18195,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -18246,7 +18252,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -18303,7 +18309,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -18360,7 +18366,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -18419,7 +18425,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -18476,7 +18482,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -18533,7 +18539,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -18590,7 +18596,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -18647,7 +18653,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -18704,7 +18710,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -18761,7 +18767,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="119"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -18818,7 +18824,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="120"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -18875,7 +18881,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -18932,7 +18938,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -18989,7 +18995,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -19046,7 +19052,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -19103,7 +19109,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -19160,7 +19166,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="120"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -19217,7 +19223,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -19274,7 +19280,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="119" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -19333,7 +19339,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -19390,7 +19396,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -19447,7 +19453,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -19504,7 +19510,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -19561,7 +19567,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="120"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -19618,7 +19624,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="120"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -19675,7 +19681,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="120"/>
+      <c r="A73" s="119"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -19732,7 +19738,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="120"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -19789,7 +19795,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="120"/>
+      <c r="A75" s="119"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -19846,7 +19852,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="120"/>
+      <c r="A76" s="119"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -19903,7 +19909,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="120"/>
+      <c r="A77" s="119"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -19960,7 +19966,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="120"/>
+      <c r="A78" s="119"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -20017,7 +20023,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
+      <c r="A79" s="119"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -20074,7 +20080,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -20131,7 +20137,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="119"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -20188,7 +20194,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -20247,7 +20253,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
+      <c r="A83" s="119"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -20304,7 +20310,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="120"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -20361,7 +20367,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
+      <c r="A85" s="119"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -20418,7 +20424,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="120"/>
+      <c r="A86" s="119"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -20475,7 +20481,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
+      <c r="A87" s="119"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -20532,7 +20538,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
+      <c r="A88" s="119"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -20589,7 +20595,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -20646,7 +20652,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -20703,7 +20709,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -20760,7 +20766,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
+      <c r="A92" s="119"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -20817,7 +20823,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="119"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -20874,7 +20880,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -20931,7 +20937,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -20988,7 +20994,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -21045,7 +21051,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -21102,7 +21108,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="119" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -21161,7 +21167,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -21218,7 +21224,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -21275,7 +21281,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -21332,7 +21338,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="119"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -21389,7 +21395,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="119"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -21446,7 +21452,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="120"/>
+      <c r="A104" s="119"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -21503,7 +21509,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="119"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -21560,7 +21566,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="120"/>
+      <c r="A106" s="119"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -21617,7 +21623,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="120"/>
+      <c r="A107" s="119"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -21674,7 +21680,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="120"/>
+      <c r="A108" s="119"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -21731,7 +21737,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="120"/>
+      <c r="A109" s="119"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -21788,7 +21794,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="120"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -21845,7 +21851,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="119"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -21902,7 +21908,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
+      <c r="A112" s="119"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -21959,7 +21965,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="119"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -22016,7 +22022,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="120" t="s">
+      <c r="A114" s="119" t="s">
         <v>101</v>
       </c>
       <c r="B114" s="89" t="s">
@@ -22075,7 +22081,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="120"/>
+      <c r="A115" s="119"/>
       <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
@@ -22132,7 +22138,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="120"/>
+      <c r="A116" s="119"/>
       <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
@@ -22189,7 +22195,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
+      <c r="A117" s="119"/>
       <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
@@ -22246,7 +22252,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="120"/>
+      <c r="A118" s="119"/>
       <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
@@ -22303,7 +22309,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
@@ -22360,7 +22366,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="120"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
@@ -22417,7 +22423,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
+      <c r="A121" s="119"/>
       <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
@@ -22474,7 +22480,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
+      <c r="A122" s="119"/>
       <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
@@ -22531,7 +22537,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
+      <c r="A123" s="119"/>
       <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
@@ -22588,7 +22594,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
+      <c r="A124" s="119"/>
       <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
@@ -22645,7 +22651,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
+      <c r="A125" s="119"/>
       <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
@@ -22702,7 +22708,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
+      <c r="A126" s="119"/>
       <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
@@ -22759,7 +22765,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
+      <c r="A127" s="119"/>
       <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
@@ -22816,7 +22822,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
@@ -22873,7 +22879,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
+      <c r="A129" s="119"/>
       <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
@@ -22930,7 +22936,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="120" t="s">
+      <c r="A130" s="119" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="107" t="s">
@@ -22989,7 +22995,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
+      <c r="A131" s="119"/>
       <c r="B131" s="107" t="s">
         <v>1</v>
       </c>
@@ -23046,7 +23052,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
+      <c r="A132" s="119"/>
       <c r="B132" s="107" t="s">
         <v>2</v>
       </c>
@@ -23103,7 +23109,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
+      <c r="A133" s="119"/>
       <c r="B133" s="107" t="s">
         <v>3</v>
       </c>
@@ -23160,7 +23166,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
+      <c r="A134" s="119"/>
       <c r="B134" s="107" t="s">
         <v>4</v>
       </c>
@@ -23217,7 +23223,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
+      <c r="A135" s="119"/>
       <c r="B135" s="107" t="s">
         <v>5</v>
       </c>
@@ -23274,7 +23280,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
+      <c r="A136" s="119"/>
       <c r="B136" s="107" t="s">
         <v>6</v>
       </c>
@@ -23331,7 +23337,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="120"/>
+      <c r="A137" s="119"/>
       <c r="B137" s="107" t="s">
         <v>7</v>
       </c>
@@ -23388,7 +23394,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="120"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="107" t="s">
         <v>8</v>
       </c>
@@ -23445,7 +23451,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="120"/>
+      <c r="A139" s="119"/>
       <c r="B139" s="107" t="s">
         <v>9</v>
       </c>
@@ -23502,7 +23508,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="120"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="107" t="s">
         <v>10</v>
       </c>
@@ -23559,7 +23565,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="119"/>
       <c r="B141" s="107" t="s">
         <v>11</v>
       </c>
@@ -23616,7 +23622,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
+      <c r="A142" s="119"/>
       <c r="B142" s="107" t="s">
         <v>12</v>
       </c>
@@ -23673,7 +23679,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="120"/>
+      <c r="A143" s="119"/>
       <c r="B143" s="107" t="s">
         <v>13</v>
       </c>
@@ -23730,7 +23736,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="120"/>
+      <c r="A144" s="119"/>
       <c r="B144" s="107" t="s">
         <v>14</v>
       </c>
@@ -23787,7 +23793,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="120"/>
+      <c r="A145" s="119"/>
       <c r="B145" s="107" t="s">
         <v>15</v>
       </c>
@@ -23844,7 +23850,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="120" t="s">
+      <c r="A146" s="119" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="108" t="s">
@@ -23903,7 +23909,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
+      <c r="A147" s="119"/>
       <c r="B147" s="108" t="s">
         <v>1</v>
       </c>
@@ -23960,7 +23966,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
+      <c r="A148" s="119"/>
       <c r="B148" s="108" t="s">
         <v>2</v>
       </c>
@@ -24017,7 +24023,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="120"/>
+      <c r="A149" s="119"/>
       <c r="B149" s="108" t="s">
         <v>3</v>
       </c>
@@ -24074,7 +24080,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="120"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="108" t="s">
         <v>4</v>
       </c>
@@ -24131,7 +24137,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="120"/>
+      <c r="A151" s="119"/>
       <c r="B151" s="108" t="s">
         <v>5</v>
       </c>
@@ -24188,7 +24194,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="119"/>
       <c r="B152" s="108" t="s">
         <v>6</v>
       </c>
@@ -24245,7 +24251,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="120"/>
+      <c r="A153" s="119"/>
       <c r="B153" s="108" t="s">
         <v>7</v>
       </c>
@@ -24302,7 +24308,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="120"/>
+      <c r="A154" s="119"/>
       <c r="B154" s="108" t="s">
         <v>8</v>
       </c>
@@ -24359,7 +24365,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="120"/>
+      <c r="A155" s="119"/>
       <c r="B155" s="108" t="s">
         <v>9</v>
       </c>
@@ -24416,7 +24422,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="120"/>
+      <c r="A156" s="119"/>
       <c r="B156" s="108" t="s">
         <v>10</v>
       </c>
@@ -24473,7 +24479,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="120"/>
+      <c r="A157" s="119"/>
       <c r="B157" s="108" t="s">
         <v>11</v>
       </c>
@@ -24530,7 +24536,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
+      <c r="A158" s="119"/>
       <c r="B158" s="108" t="s">
         <v>12</v>
       </c>
@@ -24587,7 +24593,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="120"/>
+      <c r="A159" s="119"/>
       <c r="B159" s="108" t="s">
         <v>13</v>
       </c>
@@ -24644,7 +24650,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="120"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="108" t="s">
         <v>14</v>
       </c>
@@ -24701,7 +24707,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="120"/>
+      <c r="A161" s="119"/>
       <c r="B161" s="108" t="s">
         <v>15</v>
       </c>
@@ -24758,7 +24764,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="120" t="s">
+      <c r="A162" s="119" t="s">
         <v>107</v>
       </c>
       <c r="B162" s="108" t="s">
@@ -24817,7 +24823,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
+      <c r="A163" s="119"/>
       <c r="B163" s="108" t="s">
         <v>1</v>
       </c>
@@ -24874,7 +24880,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="120"/>
+      <c r="A164" s="119"/>
       <c r="B164" s="108" t="s">
         <v>2</v>
       </c>
@@ -24931,7 +24937,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
+      <c r="A165" s="119"/>
       <c r="B165" s="108" t="s">
         <v>3</v>
       </c>
@@ -24988,7 +24994,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="120"/>
+      <c r="A166" s="119"/>
       <c r="B166" s="108" t="s">
         <v>4</v>
       </c>
@@ -25045,7 +25051,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="120"/>
+      <c r="A167" s="119"/>
       <c r="B167" s="108" t="s">
         <v>5</v>
       </c>
@@ -25102,7 +25108,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="120"/>
+      <c r="A168" s="119"/>
       <c r="B168" s="108" t="s">
         <v>6</v>
       </c>
@@ -25159,7 +25165,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="120"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="108" t="s">
         <v>7</v>
       </c>
@@ -25216,7 +25222,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="120"/>
+      <c r="A170" s="119"/>
       <c r="B170" s="108" t="s">
         <v>8</v>
       </c>
@@ -25273,7 +25279,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
+      <c r="A171" s="119"/>
       <c r="B171" s="108" t="s">
         <v>9</v>
       </c>
@@ -25330,7 +25336,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="120"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="108" t="s">
         <v>10</v>
       </c>
@@ -25387,7 +25393,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="120"/>
+      <c r="A173" s="119"/>
       <c r="B173" s="108" t="s">
         <v>11</v>
       </c>
@@ -25444,7 +25450,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="120"/>
+      <c r="A174" s="119"/>
       <c r="B174" s="108" t="s">
         <v>12</v>
       </c>
@@ -25501,7 +25507,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="120"/>
+      <c r="A175" s="119"/>
       <c r="B175" s="108" t="s">
         <v>13</v>
       </c>
@@ -25558,7 +25564,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="120"/>
+      <c r="A176" s="119"/>
       <c r="B176" s="108" t="s">
         <v>14</v>
       </c>
@@ -25615,7 +25621,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="120"/>
+      <c r="A177" s="119"/>
       <c r="B177" s="108" t="s">
         <v>15</v>
       </c>
@@ -25672,10 +25678,10 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="120" t="s">
+      <c r="A178" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B178" s="112" t="s">
+      <c r="B178" s="111" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="64">
@@ -25731,8 +25737,8 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="120"/>
-      <c r="B179" s="112" t="s">
+      <c r="A179" s="119"/>
+      <c r="B179" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="64">
@@ -25788,8 +25794,8 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="120"/>
-      <c r="B180" s="112" t="s">
+      <c r="A180" s="119"/>
+      <c r="B180" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="64">
@@ -25845,8 +25851,8 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="120"/>
-      <c r="B181" s="112" t="s">
+      <c r="A181" s="119"/>
+      <c r="B181" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="64">
@@ -25902,8 +25908,8 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="120"/>
-      <c r="B182" s="112" t="s">
+      <c r="A182" s="119"/>
+      <c r="B182" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="64">
@@ -25959,8 +25965,8 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="120"/>
-      <c r="B183" s="112" t="s">
+      <c r="A183" s="119"/>
+      <c r="B183" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="64">
@@ -26016,8 +26022,8 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="120"/>
-      <c r="B184" s="112" t="s">
+      <c r="A184" s="119"/>
+      <c r="B184" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="64">
@@ -26073,8 +26079,8 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="120"/>
-      <c r="B185" s="112" t="s">
+      <c r="A185" s="119"/>
+      <c r="B185" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="64">
@@ -26130,8 +26136,8 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="120"/>
-      <c r="B186" s="112" t="s">
+      <c r="A186" s="119"/>
+      <c r="B186" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="64">
@@ -26187,8 +26193,8 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="120"/>
-      <c r="B187" s="112" t="s">
+      <c r="A187" s="119"/>
+      <c r="B187" s="111" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="64">
@@ -26244,8 +26250,8 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="120"/>
-      <c r="B188" s="112" t="s">
+      <c r="A188" s="119"/>
+      <c r="B188" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="64">
@@ -26301,8 +26307,8 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="120"/>
-      <c r="B189" s="112" t="s">
+      <c r="A189" s="119"/>
+      <c r="B189" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="64">
@@ -26358,8 +26364,8 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="120"/>
-      <c r="B190" s="112" t="s">
+      <c r="A190" s="119"/>
+      <c r="B190" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="64">
@@ -26415,8 +26421,8 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
-      <c r="B191" s="112" t="s">
+      <c r="A191" s="119"/>
+      <c r="B191" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="64">
@@ -26472,8 +26478,8 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="120"/>
-      <c r="B192" s="112" t="s">
+      <c r="A192" s="119"/>
+      <c r="B192" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="64">
@@ -26529,8 +26535,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
-      <c r="B193" s="112" t="s">
+      <c r="A193" s="119"/>
+      <c r="B193" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="64">
@@ -26677,7 +26683,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -26736,7 +26742,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -26793,7 +26799,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -26850,7 +26856,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -26907,7 +26913,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -26964,7 +26970,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -27021,7 +27027,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -27078,7 +27084,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -27135,7 +27141,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -27192,7 +27198,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -27249,7 +27255,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -27306,7 +27312,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -27363,7 +27369,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -27420,7 +27426,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -27477,7 +27483,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -27534,7 +27540,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -27591,7 +27597,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -27650,7 +27656,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -27707,7 +27713,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -27764,7 +27770,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -27821,7 +27827,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -27878,7 +27884,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -27935,7 +27941,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -27992,7 +27998,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -28049,7 +28055,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -28106,7 +28112,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -28163,7 +28169,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -28220,7 +28226,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -28277,7 +28283,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -28334,7 +28340,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -28391,7 +28397,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -28448,7 +28454,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -28505,7 +28511,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -28564,7 +28570,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -28621,7 +28627,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -28678,7 +28684,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -28735,7 +28741,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -28792,7 +28798,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -28849,7 +28855,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -28906,7 +28912,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -28963,7 +28969,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -29020,7 +29026,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -29077,7 +29083,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -29134,7 +29140,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -29191,7 +29197,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -29248,7 +29254,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -29305,7 +29311,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -29362,7 +29368,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -29419,7 +29425,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -29478,7 +29484,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -29535,7 +29541,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -29592,7 +29598,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -29649,7 +29655,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -29706,7 +29712,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -29763,7 +29769,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -29820,7 +29826,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="119"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -29877,7 +29883,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="120"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -29934,7 +29940,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -29991,7 +29997,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -30048,7 +30054,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -30105,7 +30111,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -30162,7 +30168,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -30219,7 +30225,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="120"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -30276,7 +30282,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -30333,7 +30339,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="119" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -30392,7 +30398,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -30449,7 +30455,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -30506,7 +30512,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -30563,7 +30569,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -30620,7 +30626,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="120"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -30677,7 +30683,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="120"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -30734,7 +30740,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="120"/>
+      <c r="A73" s="119"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -30791,7 +30797,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="120"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -30848,7 +30854,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="120"/>
+      <c r="A75" s="119"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -30905,7 +30911,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="120"/>
+      <c r="A76" s="119"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -30962,7 +30968,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="120"/>
+      <c r="A77" s="119"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -31019,7 +31025,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="120"/>
+      <c r="A78" s="119"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -31076,7 +31082,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
+      <c r="A79" s="119"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -31133,7 +31139,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -31190,7 +31196,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="119"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -31247,7 +31253,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -31306,7 +31312,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
+      <c r="A83" s="119"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -31363,7 +31369,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="120"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -31420,7 +31426,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
+      <c r="A85" s="119"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -31477,7 +31483,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="120"/>
+      <c r="A86" s="119"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -31534,7 +31540,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
+      <c r="A87" s="119"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -31591,7 +31597,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
+      <c r="A88" s="119"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -31648,7 +31654,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -31705,7 +31711,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -31762,7 +31768,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -31819,7 +31825,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
+      <c r="A92" s="119"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -31876,7 +31882,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="119"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -31933,7 +31939,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -31990,7 +31996,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -32047,7 +32053,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -32104,7 +32110,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -32161,7 +32167,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="119" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="87" t="s">
@@ -32220,7 +32226,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="87" t="s">
         <v>1</v>
       </c>
@@ -32277,7 +32283,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="87" t="s">
         <v>2</v>
       </c>
@@ -32334,7 +32340,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="87" t="s">
         <v>3</v>
       </c>
@@ -32391,7 +32397,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="119"/>
       <c r="B102" s="87" t="s">
         <v>4</v>
       </c>
@@ -32448,7 +32454,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="119"/>
       <c r="B103" s="87" t="s">
         <v>5</v>
       </c>
@@ -32505,7 +32511,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="120"/>
+      <c r="A104" s="119"/>
       <c r="B104" s="87" t="s">
         <v>6</v>
       </c>
@@ -32562,7 +32568,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="119"/>
       <c r="B105" s="87" t="s">
         <v>7</v>
       </c>
@@ -32619,7 +32625,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="120"/>
+      <c r="A106" s="119"/>
       <c r="B106" s="87" t="s">
         <v>8</v>
       </c>
@@ -32676,7 +32682,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="120"/>
+      <c r="A107" s="119"/>
       <c r="B107" s="87" t="s">
         <v>9</v>
       </c>
@@ -32733,7 +32739,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="120"/>
+      <c r="A108" s="119"/>
       <c r="B108" s="87" t="s">
         <v>10</v>
       </c>
@@ -32790,7 +32796,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="120"/>
+      <c r="A109" s="119"/>
       <c r="B109" s="87" t="s">
         <v>11</v>
       </c>
@@ -32847,7 +32853,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="120"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="87" t="s">
         <v>12</v>
       </c>
@@ -32904,7 +32910,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="119"/>
       <c r="B111" s="87" t="s">
         <v>13</v>
       </c>
@@ -32961,7 +32967,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
+      <c r="A112" s="119"/>
       <c r="B112" s="87" t="s">
         <v>14</v>
       </c>
@@ -33018,7 +33024,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="119"/>
       <c r="B113" s="87" t="s">
         <v>15</v>
       </c>
@@ -33075,7 +33081,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="120" t="s">
+      <c r="A114" s="119" t="s">
         <v>101</v>
       </c>
       <c r="B114" s="89" t="s">
@@ -33134,7 +33140,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="120"/>
+      <c r="A115" s="119"/>
       <c r="B115" s="89" t="s">
         <v>1</v>
       </c>
@@ -33191,7 +33197,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="120"/>
+      <c r="A116" s="119"/>
       <c r="B116" s="89" t="s">
         <v>2</v>
       </c>
@@ -33248,7 +33254,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
+      <c r="A117" s="119"/>
       <c r="B117" s="89" t="s">
         <v>3</v>
       </c>
@@ -33305,7 +33311,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="120"/>
+      <c r="A118" s="119"/>
       <c r="B118" s="89" t="s">
         <v>4</v>
       </c>
@@ -33362,7 +33368,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="89" t="s">
         <v>5</v>
       </c>
@@ -33419,7 +33425,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="120"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="89" t="s">
         <v>6</v>
       </c>
@@ -33476,7 +33482,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
+      <c r="A121" s="119"/>
       <c r="B121" s="89" t="s">
         <v>7</v>
       </c>
@@ -33533,7 +33539,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
+      <c r="A122" s="119"/>
       <c r="B122" s="89" t="s">
         <v>8</v>
       </c>
@@ -33590,7 +33596,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
+      <c r="A123" s="119"/>
       <c r="B123" s="89" t="s">
         <v>9</v>
       </c>
@@ -33647,7 +33653,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
+      <c r="A124" s="119"/>
       <c r="B124" s="89" t="s">
         <v>10</v>
       </c>
@@ -33704,7 +33710,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
+      <c r="A125" s="119"/>
       <c r="B125" s="89" t="s">
         <v>11</v>
       </c>
@@ -33761,7 +33767,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
+      <c r="A126" s="119"/>
       <c r="B126" s="89" t="s">
         <v>12</v>
       </c>
@@ -33818,7 +33824,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
+      <c r="A127" s="119"/>
       <c r="B127" s="89" t="s">
         <v>13</v>
       </c>
@@ -33875,7 +33881,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="89" t="s">
         <v>14</v>
       </c>
@@ -33932,7 +33938,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
+      <c r="A129" s="119"/>
       <c r="B129" s="89" t="s">
         <v>15</v>
       </c>
@@ -33989,7 +33995,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="120" t="s">
+      <c r="A130" s="119" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="107" t="s">
@@ -34048,7 +34054,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
+      <c r="A131" s="119"/>
       <c r="B131" s="107" t="s">
         <v>1</v>
       </c>
@@ -34105,7 +34111,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
+      <c r="A132" s="119"/>
       <c r="B132" s="107" t="s">
         <v>2</v>
       </c>
@@ -34162,7 +34168,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
+      <c r="A133" s="119"/>
       <c r="B133" s="107" t="s">
         <v>3</v>
       </c>
@@ -34219,7 +34225,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
+      <c r="A134" s="119"/>
       <c r="B134" s="107" t="s">
         <v>4</v>
       </c>
@@ -34276,7 +34282,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
+      <c r="A135" s="119"/>
       <c r="B135" s="107" t="s">
         <v>5</v>
       </c>
@@ -34333,7 +34339,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
+      <c r="A136" s="119"/>
       <c r="B136" s="107" t="s">
         <v>6</v>
       </c>
@@ -34390,7 +34396,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="120"/>
+      <c r="A137" s="119"/>
       <c r="B137" s="107" t="s">
         <v>7</v>
       </c>
@@ -34447,7 +34453,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="120"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="107" t="s">
         <v>8</v>
       </c>
@@ -34504,7 +34510,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="120"/>
+      <c r="A139" s="119"/>
       <c r="B139" s="107" t="s">
         <v>9</v>
       </c>
@@ -34561,7 +34567,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="120"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="107" t="s">
         <v>10</v>
       </c>
@@ -34618,7 +34624,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="119"/>
       <c r="B141" s="107" t="s">
         <v>11</v>
       </c>
@@ -34675,7 +34681,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
+      <c r="A142" s="119"/>
       <c r="B142" s="107" t="s">
         <v>12</v>
       </c>
@@ -34732,7 +34738,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="120"/>
+      <c r="A143" s="119"/>
       <c r="B143" s="107" t="s">
         <v>13</v>
       </c>
@@ -34789,7 +34795,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="120"/>
+      <c r="A144" s="119"/>
       <c r="B144" s="107" t="s">
         <v>14</v>
       </c>
@@ -34846,7 +34852,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="120"/>
+      <c r="A145" s="119"/>
       <c r="B145" s="107" t="s">
         <v>15</v>
       </c>
@@ -34903,7 +34909,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="120" t="s">
+      <c r="A146" s="119" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="108" t="s">
@@ -34962,7 +34968,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
+      <c r="A147" s="119"/>
       <c r="B147" s="108" t="s">
         <v>1</v>
       </c>
@@ -35019,7 +35025,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
+      <c r="A148" s="119"/>
       <c r="B148" s="108" t="s">
         <v>2</v>
       </c>
@@ -35076,7 +35082,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="120"/>
+      <c r="A149" s="119"/>
       <c r="B149" s="108" t="s">
         <v>3</v>
       </c>
@@ -35133,7 +35139,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="120"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="108" t="s">
         <v>4</v>
       </c>
@@ -35190,7 +35196,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="120"/>
+      <c r="A151" s="119"/>
       <c r="B151" s="108" t="s">
         <v>5</v>
       </c>
@@ -35247,7 +35253,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="119"/>
       <c r="B152" s="108" t="s">
         <v>6</v>
       </c>
@@ -35304,7 +35310,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="120"/>
+      <c r="A153" s="119"/>
       <c r="B153" s="108" t="s">
         <v>7</v>
       </c>
@@ -35361,7 +35367,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="120"/>
+      <c r="A154" s="119"/>
       <c r="B154" s="108" t="s">
         <v>8</v>
       </c>
@@ -35418,7 +35424,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="120"/>
+      <c r="A155" s="119"/>
       <c r="B155" s="108" t="s">
         <v>9</v>
       </c>
@@ -35475,7 +35481,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="120"/>
+      <c r="A156" s="119"/>
       <c r="B156" s="108" t="s">
         <v>10</v>
       </c>
@@ -35532,7 +35538,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="120"/>
+      <c r="A157" s="119"/>
       <c r="B157" s="108" t="s">
         <v>11</v>
       </c>
@@ -35589,7 +35595,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
+      <c r="A158" s="119"/>
       <c r="B158" s="108" t="s">
         <v>12</v>
       </c>
@@ -35646,7 +35652,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="120"/>
+      <c r="A159" s="119"/>
       <c r="B159" s="108" t="s">
         <v>13</v>
       </c>
@@ -35703,7 +35709,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="120"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="108" t="s">
         <v>14</v>
       </c>
@@ -35760,7 +35766,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="120"/>
+      <c r="A161" s="119"/>
       <c r="B161" s="108" t="s">
         <v>15</v>
       </c>
@@ -35817,7 +35823,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="120" t="s">
+      <c r="A162" s="119" t="s">
         <v>107</v>
       </c>
       <c r="B162" s="108" t="s">
@@ -35876,7 +35882,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
+      <c r="A163" s="119"/>
       <c r="B163" s="108" t="s">
         <v>1</v>
       </c>
@@ -35933,7 +35939,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="120"/>
+      <c r="A164" s="119"/>
       <c r="B164" s="108" t="s">
         <v>2</v>
       </c>
@@ -35990,7 +35996,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
+      <c r="A165" s="119"/>
       <c r="B165" s="108" t="s">
         <v>3</v>
       </c>
@@ -36047,7 +36053,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="120"/>
+      <c r="A166" s="119"/>
       <c r="B166" s="108" t="s">
         <v>4</v>
       </c>
@@ -36104,7 +36110,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="120"/>
+      <c r="A167" s="119"/>
       <c r="B167" s="108" t="s">
         <v>5</v>
       </c>
@@ -36161,7 +36167,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="120"/>
+      <c r="A168" s="119"/>
       <c r="B168" s="108" t="s">
         <v>6</v>
       </c>
@@ -36218,7 +36224,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="120"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="108" t="s">
         <v>7</v>
       </c>
@@ -36275,7 +36281,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="120"/>
+      <c r="A170" s="119"/>
       <c r="B170" s="108" t="s">
         <v>8</v>
       </c>
@@ -36332,7 +36338,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
+      <c r="A171" s="119"/>
       <c r="B171" s="108" t="s">
         <v>9</v>
       </c>
@@ -36389,7 +36395,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="120"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="108" t="s">
         <v>10</v>
       </c>
@@ -36446,7 +36452,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="120"/>
+      <c r="A173" s="119"/>
       <c r="B173" s="108" t="s">
         <v>11</v>
       </c>
@@ -36503,7 +36509,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="120"/>
+      <c r="A174" s="119"/>
       <c r="B174" s="108" t="s">
         <v>12</v>
       </c>
@@ -36560,7 +36566,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="120"/>
+      <c r="A175" s="119"/>
       <c r="B175" s="108" t="s">
         <v>13</v>
       </c>
@@ -36617,7 +36623,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="120"/>
+      <c r="A176" s="119"/>
       <c r="B176" s="108" t="s">
         <v>14</v>
       </c>
@@ -36674,7 +36680,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="120"/>
+      <c r="A177" s="119"/>
       <c r="B177" s="108" t="s">
         <v>15</v>
       </c>
@@ -36731,10 +36737,10 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="120" t="s">
+      <c r="A178" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B178" s="112" t="s">
+      <c r="B178" s="111" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="64">
@@ -36790,8 +36796,8 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="120"/>
-      <c r="B179" s="112" t="s">
+      <c r="A179" s="119"/>
+      <c r="B179" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="64">
@@ -36847,8 +36853,8 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="120"/>
-      <c r="B180" s="112" t="s">
+      <c r="A180" s="119"/>
+      <c r="B180" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="64">
@@ -36904,8 +36910,8 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="120"/>
-      <c r="B181" s="112" t="s">
+      <c r="A181" s="119"/>
+      <c r="B181" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="64">
@@ -36961,8 +36967,8 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="120"/>
-      <c r="B182" s="112" t="s">
+      <c r="A182" s="119"/>
+      <c r="B182" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="64">
@@ -37018,8 +37024,8 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="120"/>
-      <c r="B183" s="112" t="s">
+      <c r="A183" s="119"/>
+      <c r="B183" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="64">
@@ -37075,8 +37081,8 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="120"/>
-      <c r="B184" s="112" t="s">
+      <c r="A184" s="119"/>
+      <c r="B184" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="64">
@@ -37132,8 +37138,8 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="120"/>
-      <c r="B185" s="112" t="s">
+      <c r="A185" s="119"/>
+      <c r="B185" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="64">
@@ -37189,8 +37195,8 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="120"/>
-      <c r="B186" s="112" t="s">
+      <c r="A186" s="119"/>
+      <c r="B186" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="64">
@@ -37246,8 +37252,8 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="120"/>
-      <c r="B187" s="112" t="s">
+      <c r="A187" s="119"/>
+      <c r="B187" s="111" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="64">
@@ -37303,8 +37309,8 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="120"/>
-      <c r="B188" s="112" t="s">
+      <c r="A188" s="119"/>
+      <c r="B188" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="64">
@@ -37360,8 +37366,8 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="120"/>
-      <c r="B189" s="112" t="s">
+      <c r="A189" s="119"/>
+      <c r="B189" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="64">
@@ -37417,8 +37423,8 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="120"/>
-      <c r="B190" s="112" t="s">
+      <c r="A190" s="119"/>
+      <c r="B190" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="64">
@@ -37474,8 +37480,8 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
-      <c r="B191" s="112" t="s">
+      <c r="A191" s="119"/>
+      <c r="B191" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="64">
@@ -37531,8 +37537,8 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="120"/>
-      <c r="B192" s="112" t="s">
+      <c r="A192" s="119"/>
+      <c r="B192" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="64">
@@ -37588,8 +37594,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
-      <c r="B193" s="112" t="s">
+      <c r="A193" s="119"/>
+      <c r="B193" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="64">
@@ -37736,7 +37742,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -37795,7 +37801,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
@@ -37852,7 +37858,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -37909,7 +37915,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -37966,7 +37972,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
@@ -38023,7 +38029,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
@@ -38080,7 +38086,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -38137,7 +38143,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -38194,7 +38200,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
@@ -38251,7 +38257,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
@@ -38308,7 +38314,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
@@ -38365,7 +38371,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -38422,7 +38428,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
@@ -38479,7 +38485,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
@@ -38536,7 +38542,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
@@ -38593,7 +38599,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -38650,7 +38656,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -38709,7 +38715,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="44" t="s">
         <v>1</v>
       </c>
@@ -38766,7 +38772,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="44" t="s">
         <v>2</v>
       </c>
@@ -38823,7 +38829,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -38880,7 +38886,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
@@ -38937,7 +38943,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -38994,7 +39000,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
@@ -39051,7 +39057,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -39108,7 +39114,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
@@ -39165,7 +39171,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
@@ -39222,7 +39228,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
@@ -39279,7 +39285,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
@@ -39336,7 +39342,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="44" t="s">
         <v>12</v>
       </c>
@@ -39393,7 +39399,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
@@ -39450,7 +39456,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
@@ -39507,7 +39513,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
@@ -39564,7 +39570,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -39623,7 +39629,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="44" t="s">
         <v>1</v>
       </c>
@@ -39680,7 +39686,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="44" t="s">
         <v>2</v>
       </c>
@@ -39737,7 +39743,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
@@ -39794,7 +39800,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="44" t="s">
         <v>4</v>
       </c>
@@ -39851,7 +39857,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="44" t="s">
         <v>5</v>
       </c>
@@ -39908,7 +39914,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
@@ -39965,7 +39971,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
@@ -40022,7 +40028,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
@@ -40079,7 +40085,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="44" t="s">
         <v>9</v>
       </c>
@@ -40136,7 +40142,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="44" t="s">
         <v>10</v>
       </c>
@@ -40193,7 +40199,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="44" t="s">
         <v>11</v>
       </c>
@@ -40250,7 +40256,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
@@ -40307,7 +40313,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="44" t="s">
         <v>13</v>
       </c>
@@ -40364,7 +40370,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
@@ -40421,7 +40427,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="44" t="s">
         <v>15</v>
       </c>
@@ -40478,7 +40484,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -40537,7 +40543,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="44" t="s">
         <v>1</v>
       </c>
@@ -40594,7 +40600,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="44" t="s">
         <v>2</v>
       </c>
@@ -40651,7 +40657,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="44" t="s">
         <v>3</v>
       </c>
@@ -40708,7 +40714,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="44" t="s">
         <v>4</v>
       </c>
@@ -40765,7 +40771,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="44" t="s">
         <v>5</v>
       </c>
@@ -40822,7 +40828,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -40879,7 +40885,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="119"/>
       <c r="B57" s="44" t="s">
         <v>7</v>
       </c>
@@ -40936,7 +40942,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="120"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
@@ -40993,7 +40999,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="44" t="s">
         <v>9</v>
       </c>
@@ -41050,7 +41056,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="44" t="s">
         <v>10</v>
       </c>
@@ -41107,7 +41113,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="44" t="s">
         <v>11</v>
       </c>
@@ -41164,7 +41170,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="44" t="s">
         <v>12</v>
       </c>
@@ -41221,7 +41227,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="44" t="s">
         <v>13</v>
       </c>
@@ -41278,7 +41284,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="120"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="44" t="s">
         <v>14</v>
       </c>
@@ -41335,7 +41341,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="44" t="s">
         <v>15</v>
       </c>
@@ -41392,7 +41398,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="119" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="44" t="s">
@@ -41451,7 +41457,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="44" t="s">
         <v>1</v>
       </c>
@@ -41508,7 +41514,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="44" t="s">
         <v>2</v>
       </c>
@@ -41565,7 +41571,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="44" t="s">
         <v>3</v>
       </c>
@@ -41622,7 +41628,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="44" t="s">
         <v>4</v>
       </c>
@@ -41679,7 +41685,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="120"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="44" t="s">
         <v>5</v>
       </c>
@@ -41736,7 +41742,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="120"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="44" t="s">
         <v>6</v>
       </c>
@@ -41793,7 +41799,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="120"/>
+      <c r="A73" s="119"/>
       <c r="B73" s="44" t="s">
         <v>7</v>
       </c>
@@ -41850,7 +41856,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="120"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="44" t="s">
         <v>8</v>
       </c>
@@ -41907,7 +41913,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="120"/>
+      <c r="A75" s="119"/>
       <c r="B75" s="44" t="s">
         <v>9</v>
       </c>
@@ -41964,7 +41970,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="120"/>
+      <c r="A76" s="119"/>
       <c r="B76" s="44" t="s">
         <v>10</v>
       </c>
@@ -42021,7 +42027,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="120"/>
+      <c r="A77" s="119"/>
       <c r="B77" s="44" t="s">
         <v>11</v>
       </c>
@@ -42078,7 +42084,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="120"/>
+      <c r="A78" s="119"/>
       <c r="B78" s="44" t="s">
         <v>12</v>
       </c>
@@ -42135,7 +42141,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
+      <c r="A79" s="119"/>
       <c r="B79" s="44" t="s">
         <v>13</v>
       </c>
@@ -42192,7 +42198,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="44" t="s">
         <v>14</v>
       </c>
@@ -42249,7 +42255,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="119"/>
       <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
@@ -42306,7 +42312,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="87" t="s">
@@ -42365,7 +42371,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
+      <c r="A83" s="119"/>
       <c r="B83" s="87" t="s">
         <v>1</v>
       </c>
@@ -42422,7 +42428,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="120"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="87" t="s">
         <v>2</v>
       </c>
@@ -42479,7 +42485,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
+      <c r="A85" s="119"/>
       <c r="B85" s="87" t="s">
         <v>3</v>
       </c>
@@ -42536,7 +42542,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="120"/>
+      <c r="A86" s="119"/>
       <c r="B86" s="87" t="s">
         <v>4</v>
       </c>
@@ -42593,7 +42599,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
+      <c r="A87" s="119"/>
       <c r="B87" s="87" t="s">
         <v>5</v>
       </c>
@@ -42650,7 +42656,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
+      <c r="A88" s="119"/>
       <c r="B88" s="87" t="s">
         <v>6</v>
       </c>
@@ -42707,7 +42713,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="87" t="s">
         <v>7</v>
       </c>
@@ -42764,7 +42770,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="87" t="s">
         <v>8</v>
       </c>
@@ -42821,7 +42827,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="87" t="s">
         <v>9</v>
       </c>
@@ -42878,7 +42884,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
+      <c r="A92" s="119"/>
       <c r="B92" s="87" t="s">
         <v>10</v>
       </c>
@@ -42935,7 +42941,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="119"/>
       <c r="B93" s="87" t="s">
         <v>11</v>
       </c>
@@ -42992,7 +42998,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="87" t="s">
         <v>12</v>
       </c>
@@ -43049,7 +43055,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="87" t="s">
         <v>13</v>
       </c>
@@ -43106,7 +43112,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="87" t="s">
         <v>14</v>
       </c>
@@ -43163,7 +43169,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="87" t="s">
         <v>15</v>
       </c>
@@ -43220,7 +43226,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="119" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="89" t="s">
@@ -43279,7 +43285,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="89" t="s">
         <v>1</v>
       </c>
@@ -43336,7 +43342,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="89" t="s">
         <v>2</v>
       </c>
@@ -43393,7 +43399,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="89" t="s">
         <v>3</v>
       </c>
@@ -43450,7 +43456,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="119"/>
       <c r="B102" s="89" t="s">
         <v>4</v>
       </c>
@@ -43507,7 +43513,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="119"/>
       <c r="B103" s="89" t="s">
         <v>5</v>
       </c>
@@ -43564,7 +43570,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="120"/>
+      <c r="A104" s="119"/>
       <c r="B104" s="89" t="s">
         <v>6</v>
       </c>
@@ -43621,7 +43627,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="119"/>
       <c r="B105" s="89" t="s">
         <v>7</v>
       </c>
@@ -43678,7 +43684,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="120"/>
+      <c r="A106" s="119"/>
       <c r="B106" s="89" t="s">
         <v>8</v>
       </c>
@@ -43735,7 +43741,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="120"/>
+      <c r="A107" s="119"/>
       <c r="B107" s="89" t="s">
         <v>9</v>
       </c>
@@ -43792,7 +43798,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="120"/>
+      <c r="A108" s="119"/>
       <c r="B108" s="89" t="s">
         <v>10</v>
       </c>
@@ -43849,7 +43855,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="120"/>
+      <c r="A109" s="119"/>
       <c r="B109" s="89" t="s">
         <v>11</v>
       </c>
@@ -43906,7 +43912,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="120"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="89" t="s">
         <v>12</v>
       </c>
@@ -43963,7 +43969,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="119"/>
       <c r="B111" s="89" t="s">
         <v>13</v>
       </c>
@@ -44020,7 +44026,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
+      <c r="A112" s="119"/>
       <c r="B112" s="89" t="s">
         <v>14</v>
       </c>
@@ -44077,7 +44083,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="119"/>
       <c r="B113" s="89" t="s">
         <v>15</v>
       </c>
@@ -44134,7 +44140,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="118" t="s">
+      <c r="A114" s="117" t="s">
         <v>101</v>
       </c>
       <c r="B114" s="107" t="s">
@@ -44193,7 +44199,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="137"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107" t="s">
         <v>1</v>
       </c>
@@ -44250,7 +44256,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="137"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107" t="s">
         <v>2</v>
       </c>
@@ -44307,7 +44313,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="137"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107" t="s">
         <v>3</v>
       </c>
@@ -44364,7 +44370,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="137"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107" t="s">
         <v>4</v>
       </c>
@@ -44421,7 +44427,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="137"/>
+      <c r="A119" s="136"/>
       <c r="B119" s="107" t="s">
         <v>5</v>
       </c>
@@ -44478,7 +44484,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="137"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="107" t="s">
         <v>6</v>
       </c>
@@ -44535,7 +44541,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="137"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="107" t="s">
         <v>7</v>
       </c>
@@ -44592,7 +44598,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="137"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>8</v>
       </c>
@@ -44649,7 +44655,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="137"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>9</v>
       </c>
@@ -44706,7 +44712,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="137"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>10</v>
       </c>
@@ -44763,7 +44769,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="137"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>11</v>
       </c>
@@ -44820,7 +44826,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="137"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>12</v>
       </c>
@@ -44877,7 +44883,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="137"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>13</v>
       </c>
@@ -44934,7 +44940,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="137"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>14</v>
       </c>
@@ -44991,7 +44997,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="119"/>
+      <c r="A129" s="118"/>
       <c r="B129" s="107" t="s">
         <v>15</v>
       </c>
@@ -45048,7 +45054,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="118" t="s">
+      <c r="A130" s="117" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="107" t="s">
@@ -45107,7 +45113,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="137"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="107" t="s">
         <v>1</v>
       </c>
@@ -45164,7 +45170,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="137"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="107" t="s">
         <v>2</v>
       </c>
@@ -45221,7 +45227,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="137"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="107" t="s">
         <v>3</v>
       </c>
@@ -45278,7 +45284,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="137"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="107" t="s">
         <v>4</v>
       </c>
@@ -45335,7 +45341,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="137"/>
+      <c r="A135" s="136"/>
       <c r="B135" s="107" t="s">
         <v>5</v>
       </c>
@@ -45392,7 +45398,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="137"/>
+      <c r="A136" s="136"/>
       <c r="B136" s="107" t="s">
         <v>6</v>
       </c>
@@ -45449,7 +45455,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="137"/>
+      <c r="A137" s="136"/>
       <c r="B137" s="107" t="s">
         <v>7</v>
       </c>
@@ -45506,7 +45512,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="137"/>
+      <c r="A138" s="136"/>
       <c r="B138" s="107" t="s">
         <v>8</v>
       </c>
@@ -45563,7 +45569,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="137"/>
+      <c r="A139" s="136"/>
       <c r="B139" s="107" t="s">
         <v>9</v>
       </c>
@@ -45620,7 +45626,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="137"/>
+      <c r="A140" s="136"/>
       <c r="B140" s="107" t="s">
         <v>10</v>
       </c>
@@ -45677,7 +45683,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="137"/>
+      <c r="A141" s="136"/>
       <c r="B141" s="107" t="s">
         <v>11</v>
       </c>
@@ -45734,7 +45740,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="137"/>
+      <c r="A142" s="136"/>
       <c r="B142" s="107" t="s">
         <v>12</v>
       </c>
@@ -45791,7 +45797,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="137"/>
+      <c r="A143" s="136"/>
       <c r="B143" s="107" t="s">
         <v>13</v>
       </c>
@@ -45848,7 +45854,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="137"/>
+      <c r="A144" s="136"/>
       <c r="B144" s="107" t="s">
         <v>14</v>
       </c>
@@ -45905,7 +45911,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="119"/>
+      <c r="A145" s="118"/>
       <c r="B145" s="107" t="s">
         <v>15</v>
       </c>
@@ -45962,7 +45968,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="118" t="s">
+      <c r="A146" s="117" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="108" t="s">
@@ -46021,7 +46027,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="137"/>
+      <c r="A147" s="136"/>
       <c r="B147" s="108" t="s">
         <v>1</v>
       </c>
@@ -46078,7 +46084,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="137"/>
+      <c r="A148" s="136"/>
       <c r="B148" s="108" t="s">
         <v>2</v>
       </c>
@@ -46135,7 +46141,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="137"/>
+      <c r="A149" s="136"/>
       <c r="B149" s="108" t="s">
         <v>3</v>
       </c>
@@ -46192,7 +46198,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="137"/>
+      <c r="A150" s="136"/>
       <c r="B150" s="108" t="s">
         <v>4</v>
       </c>
@@ -46249,7 +46255,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="137"/>
+      <c r="A151" s="136"/>
       <c r="B151" s="108" t="s">
         <v>5</v>
       </c>
@@ -46306,7 +46312,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="137"/>
+      <c r="A152" s="136"/>
       <c r="B152" s="108" t="s">
         <v>6</v>
       </c>
@@ -46363,7 +46369,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="137"/>
+      <c r="A153" s="136"/>
       <c r="B153" s="108" t="s">
         <v>7</v>
       </c>
@@ -46420,7 +46426,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="137"/>
+      <c r="A154" s="136"/>
       <c r="B154" s="108" t="s">
         <v>8</v>
       </c>
@@ -46477,7 +46483,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="137"/>
+      <c r="A155" s="136"/>
       <c r="B155" s="108" t="s">
         <v>9</v>
       </c>
@@ -46534,7 +46540,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="137"/>
+      <c r="A156" s="136"/>
       <c r="B156" s="108" t="s">
         <v>10</v>
       </c>
@@ -46591,7 +46597,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="137"/>
+      <c r="A157" s="136"/>
       <c r="B157" s="108" t="s">
         <v>11</v>
       </c>
@@ -46648,7 +46654,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="137"/>
+      <c r="A158" s="136"/>
       <c r="B158" s="108" t="s">
         <v>12</v>
       </c>
@@ -46705,7 +46711,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="137"/>
+      <c r="A159" s="136"/>
       <c r="B159" s="108" t="s">
         <v>13</v>
       </c>
@@ -46762,7 +46768,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="137"/>
+      <c r="A160" s="136"/>
       <c r="B160" s="108" t="s">
         <v>14</v>
       </c>
@@ -46819,7 +46825,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="119"/>
+      <c r="A161" s="118"/>
       <c r="B161" s="108" t="s">
         <v>15</v>
       </c>
@@ -46876,7 +46882,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="118" t="s">
+      <c r="A162" s="117" t="s">
         <v>107</v>
       </c>
       <c r="B162" s="108" t="s">
@@ -46935,7 +46941,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="137"/>
+      <c r="A163" s="136"/>
       <c r="B163" s="108" t="s">
         <v>1</v>
       </c>
@@ -46992,7 +46998,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="137"/>
+      <c r="A164" s="136"/>
       <c r="B164" s="108" t="s">
         <v>2</v>
       </c>
@@ -47049,7 +47055,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="137"/>
+      <c r="A165" s="136"/>
       <c r="B165" s="108" t="s">
         <v>3</v>
       </c>
@@ -47106,7 +47112,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="137"/>
+      <c r="A166" s="136"/>
       <c r="B166" s="108" t="s">
         <v>4</v>
       </c>
@@ -47163,7 +47169,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="137"/>
+      <c r="A167" s="136"/>
       <c r="B167" s="108" t="s">
         <v>5</v>
       </c>
@@ -47220,7 +47226,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="137"/>
+      <c r="A168" s="136"/>
       <c r="B168" s="108" t="s">
         <v>6</v>
       </c>
@@ -47277,7 +47283,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="137"/>
+      <c r="A169" s="136"/>
       <c r="B169" s="108" t="s">
         <v>7</v>
       </c>
@@ -47334,7 +47340,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="137"/>
+      <c r="A170" s="136"/>
       <c r="B170" s="108" t="s">
         <v>8</v>
       </c>
@@ -47391,7 +47397,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="137"/>
+      <c r="A171" s="136"/>
       <c r="B171" s="108" t="s">
         <v>9</v>
       </c>
@@ -47448,7 +47454,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="137"/>
+      <c r="A172" s="136"/>
       <c r="B172" s="108" t="s">
         <v>10</v>
       </c>
@@ -47505,7 +47511,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="137"/>
+      <c r="A173" s="136"/>
       <c r="B173" s="108" t="s">
         <v>11</v>
       </c>
@@ -47562,7 +47568,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="137"/>
+      <c r="A174" s="136"/>
       <c r="B174" s="108" t="s">
         <v>12</v>
       </c>
@@ -47619,7 +47625,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="137"/>
+      <c r="A175" s="136"/>
       <c r="B175" s="108" t="s">
         <v>13</v>
       </c>
@@ -47676,7 +47682,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="137"/>
+      <c r="A176" s="136"/>
       <c r="B176" s="108" t="s">
         <v>14</v>
       </c>
@@ -47733,7 +47739,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="119"/>
+      <c r="A177" s="118"/>
       <c r="B177" s="108" t="s">
         <v>15</v>
       </c>
@@ -47790,10 +47796,10 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="118" t="s">
+      <c r="A178" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B178" s="112" t="s">
+      <c r="B178" s="111" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="64">
@@ -47849,8 +47855,8 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="137"/>
-      <c r="B179" s="112" t="s">
+      <c r="A179" s="136"/>
+      <c r="B179" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="64">
@@ -47906,8 +47912,8 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="137"/>
-      <c r="B180" s="112" t="s">
+      <c r="A180" s="136"/>
+      <c r="B180" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="64">
@@ -47963,8 +47969,8 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="137"/>
-      <c r="B181" s="112" t="s">
+      <c r="A181" s="136"/>
+      <c r="B181" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="64">
@@ -48020,8 +48026,8 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="137"/>
-      <c r="B182" s="112" t="s">
+      <c r="A182" s="136"/>
+      <c r="B182" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="64">
@@ -48077,8 +48083,8 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="137"/>
-      <c r="B183" s="112" t="s">
+      <c r="A183" s="136"/>
+      <c r="B183" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="64">
@@ -48134,8 +48140,8 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="137"/>
-      <c r="B184" s="112" t="s">
+      <c r="A184" s="136"/>
+      <c r="B184" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="64">
@@ -48191,8 +48197,8 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="137"/>
-      <c r="B185" s="112" t="s">
+      <c r="A185" s="136"/>
+      <c r="B185" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="64">
@@ -48248,8 +48254,8 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="137"/>
-      <c r="B186" s="112" t="s">
+      <c r="A186" s="136"/>
+      <c r="B186" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="64">
@@ -48305,8 +48311,8 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="137"/>
-      <c r="B187" s="112" t="s">
+      <c r="A187" s="136"/>
+      <c r="B187" s="111" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="64">
@@ -48362,8 +48368,8 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="137"/>
-      <c r="B188" s="112" t="s">
+      <c r="A188" s="136"/>
+      <c r="B188" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="64">
@@ -48419,8 +48425,8 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="137"/>
-      <c r="B189" s="112" t="s">
+      <c r="A189" s="136"/>
+      <c r="B189" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="64">
@@ -48476,8 +48482,8 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="137"/>
-      <c r="B190" s="112" t="s">
+      <c r="A190" s="136"/>
+      <c r="B190" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="64">
@@ -48533,8 +48539,8 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="137"/>
-      <c r="B191" s="112" t="s">
+      <c r="A191" s="136"/>
+      <c r="B191" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="64">
@@ -48590,8 +48596,8 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="137"/>
-      <c r="B192" s="112" t="s">
+      <c r="A192" s="136"/>
+      <c r="B192" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="64">
@@ -48647,8 +48653,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="119"/>
-      <c r="B193" s="112" t="s">
+      <c r="A193" s="118"/>
+      <c r="B193" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="64">
@@ -49023,7 +49029,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="64">
@@ -49104,7 +49110,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="122" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -49129,7 +49135,7 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="41" t="s">
         <v>71</v>
       </c>
@@ -49148,7 +49154,7 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -49173,7 +49179,7 @@
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="43" t="s">
         <v>71</v>
       </c>
@@ -49192,7 +49198,7 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -49217,7 +49223,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="41" t="s">
         <v>71</v>
       </c>
@@ -49236,7 +49242,7 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="124" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -49261,7 +49267,7 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
@@ -49280,7 +49286,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -49305,7 +49311,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="41" t="s">
         <v>71</v>
       </c>
@@ -49324,7 +49330,7 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="124" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="42" t="s">
@@ -49349,7 +49355,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
@@ -49368,7 +49374,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="122" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -49393,7 +49399,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="41" t="s">
         <v>71</v>
       </c>
@@ -49412,7 +49418,7 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="120" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="90" t="s">
@@ -49437,7 +49443,7 @@
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="93" t="s">
         <v>71</v>
       </c>
@@ -49456,7 +49462,7 @@
       <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="122" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="109" t="s">
@@ -49481,7 +49487,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="110" t="s">
         <v>71</v>
       </c>
@@ -49500,7 +49506,7 @@
       <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="120" t="s">
         <v>106</v>
       </c>
       <c r="B20" s="90" t="s">
@@ -49525,7 +49531,7 @@
       <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="93" t="s">
         <v>71</v>
       </c>
@@ -49544,7 +49550,7 @@
       <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="122" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="109" t="s">
@@ -49569,7 +49575,7 @@
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="110" t="s">
         <v>71</v>
       </c>
@@ -49588,7 +49594,7 @@
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="120" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="90" t="s">
@@ -49613,7 +49619,7 @@
       <c r="I24" s="91"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="93" t="s">
         <v>71</v>
       </c>
@@ -49659,8 +49665,8 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49722,7 +49728,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="133" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -49759,7 +49765,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
@@ -49767,7 +49773,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="63">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="50">
         <v>1</v>
@@ -49792,7 +49798,7 @@
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="46" t="s">
         <v>91</v>
       </c>
@@ -49800,7 +49806,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="63">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="47">
         <v>1</v>
@@ -49823,7 +49829,7 @@
       <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="46" t="s">
         <v>92</v>
       </c>
@@ -49831,7 +49837,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="63">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E5" s="47">
         <v>1</v>
@@ -49854,7 +49860,7 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
@@ -49885,7 +49891,7 @@
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="126" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="61" t="s">
@@ -49922,7 +49928,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="82" t="s">
         <v>90</v>
       </c>
@@ -49930,7 +49936,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="58">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E8" s="59">
         <v>1</v>
@@ -49955,7 +49961,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
@@ -49963,7 +49969,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="58">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E9" s="60">
         <v>1</v>
@@ -49986,7 +49992,7 @@
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="82" t="s">
         <v>92</v>
       </c>
@@ -49994,7 +50000,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="58">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E10" s="60">
         <v>1</v>
@@ -50017,7 +50023,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="82" t="s">
         <v>93</v>
       </c>
@@ -50048,7 +50054,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="130" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="69" t="s">
@@ -50085,7 +50091,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="71" t="s">
         <v>90</v>
       </c>
@@ -50120,7 +50126,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="71" t="s">
         <v>94</v>
       </c>
@@ -50128,7 +50134,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="73">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E14" s="76">
         <v>1</v>
@@ -50153,7 +50159,7 @@
       <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="71" t="s">
         <v>91</v>
       </c>
@@ -50161,7 +50167,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="73">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E15" s="72">
         <v>1</v>
@@ -50184,7 +50190,7 @@
       <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="71" t="s">
         <v>92</v>
       </c>
@@ -50192,7 +50198,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="73">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E16" s="72">
         <v>1</v>
@@ -50215,7 +50221,7 @@
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="71" t="s">
         <v>93</v>
       </c>
@@ -50246,7 +50252,7 @@
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="126" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -50283,7 +50289,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="82" t="s">
         <v>90</v>
       </c>
@@ -50291,7 +50297,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="58">
-        <v>0.3</v>
+        <v>0.315</v>
       </c>
       <c r="E19" s="59">
         <v>1</v>
@@ -50318,7 +50324,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
@@ -50351,7 +50357,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="82" t="s">
         <v>91</v>
       </c>
@@ -50382,7 +50388,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="82" t="s">
         <v>92</v>
       </c>
@@ -50413,7 +50419,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
@@ -50444,7 +50450,7 @@
       <c r="M23" s="85"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="130" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -50481,7 +50487,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="46" t="s">
         <v>90</v>
       </c>
@@ -50516,7 +50522,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="46" t="s">
         <v>94</v>
       </c>
@@ -50524,7 +50530,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="73">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E26" s="50">
         <v>1</v>
@@ -50549,7 +50555,7 @@
       <c r="M26" s="74"/>
     </row>
     <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="71" t="s">
         <v>91</v>
       </c>
@@ -50580,7 +50586,7 @@
       <c r="M27" s="74"/>
     </row>
     <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="71" t="s">
         <v>92</v>
       </c>
@@ -50611,7 +50617,7 @@
       <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="79" t="s">
         <v>93</v>
       </c>
@@ -50642,7 +50648,7 @@
       <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="126" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="61" t="s">
@@ -50679,7 +50685,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="82" t="s">
         <v>91</v>
       </c>
@@ -50714,7 +50720,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="82" t="s">
         <v>92</v>
       </c>
@@ -50747,7 +50753,7 @@
       <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="82" t="s">
         <v>93</v>
       </c>
@@ -50778,7 +50784,7 @@
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="130"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="82" t="s">
         <v>102</v>
       </c>
@@ -50809,7 +50815,7 @@
       <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="82" t="s">
         <v>103</v>
       </c>
@@ -50840,7 +50846,7 @@
       <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="131" t="s">
+      <c r="A36" s="130" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="69" t="s">
@@ -50877,7 +50883,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="71" t="s">
         <v>90</v>
       </c>
@@ -50912,7 +50918,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="71" t="s">
         <v>94</v>
       </c>
@@ -50947,7 +50953,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="71" t="s">
         <v>91</v>
       </c>
@@ -50980,7 +50986,7 @@
       <c r="M39" s="74"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="71" t="s">
         <v>92</v>
       </c>
@@ -51011,7 +51017,7 @@
       <c r="M40" s="75"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="79" t="s">
         <v>93</v>
       </c>
@@ -51042,7 +51048,7 @@
       <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="126" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="96" t="s">
@@ -51079,7 +51085,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="130"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="101" t="s">
         <v>90</v>
       </c>
@@ -51112,7 +51118,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="101" t="s">
         <v>94</v>
       </c>
@@ -51145,7 +51151,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="101" t="s">
         <v>91</v>
       </c>
@@ -51176,7 +51182,7 @@
       <c r="M45" s="100"/>
     </row>
     <row r="46" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="101" t="s">
         <v>92</v>
       </c>
@@ -51205,7 +51211,7 @@
       <c r="M46" s="100"/>
     </row>
     <row r="47" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="129"/>
+      <c r="A47" s="128"/>
       <c r="B47" s="102" t="s">
         <v>93</v>
       </c>
@@ -51236,7 +51242,7 @@
       <c r="M47" s="106"/>
     </row>
     <row r="48" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="130" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -51273,7 +51279,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="71" t="s">
         <v>90</v>
       </c>
@@ -51308,7 +51314,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="71" t="s">
         <v>94</v>
       </c>
@@ -51343,7 +51349,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="71" t="s">
         <v>105</v>
       </c>
@@ -51376,7 +51382,7 @@
       <c r="M51" s="74"/>
     </row>
     <row r="52" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="71" t="s">
         <v>91</v>
       </c>
@@ -51407,7 +51413,7 @@
       <c r="M52" s="74"/>
     </row>
     <row r="53" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="71" t="s">
         <v>92</v>
       </c>
@@ -51438,7 +51444,7 @@
       <c r="M53" s="75"/>
     </row>
     <row r="54" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="133"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="79" t="s">
         <v>93</v>
       </c>
@@ -51469,7 +51475,7 @@
       <c r="M54" s="77"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="126" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="96" t="s">
@@ -51506,7 +51512,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="130"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="101" t="s">
         <v>90</v>
       </c>
@@ -51541,7 +51547,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="130"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="101" t="s">
         <v>94</v>
       </c>
@@ -51576,7 +51582,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="130"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="101" t="s">
         <v>91</v>
       </c>
@@ -51609,7 +51615,7 @@
       <c r="M58" s="57"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="130"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="101" t="s">
         <v>92</v>
       </c>
@@ -51640,7 +51646,7 @@
       <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="129"/>
+      <c r="A60" s="128"/>
       <c r="B60" s="102" t="s">
         <v>93</v>
       </c>
@@ -51671,7 +51677,7 @@
       <c r="M60" s="85"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="130" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="69" t="s">
@@ -51708,7 +51714,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="132"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="71" t="s">
         <v>90</v>
       </c>
@@ -51743,7 +51749,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="132"/>
+      <c r="A63" s="131"/>
       <c r="B63" s="71" t="s">
         <v>94</v>
       </c>
@@ -51778,7 +51784,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
+      <c r="A64" s="131"/>
       <c r="B64" s="71" t="s">
         <v>105</v>
       </c>
@@ -51811,7 +51817,7 @@
       <c r="M64" s="74"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
+      <c r="A65" s="131"/>
       <c r="B65" s="71" t="s">
         <v>91</v>
       </c>
@@ -51842,7 +51848,7 @@
       <c r="M65" s="74"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
+      <c r="A66" s="131"/>
       <c r="B66" s="71" t="s">
         <v>92</v>
       </c>
@@ -51873,7 +51879,7 @@
       <c r="M66" s="75"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="133"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="79" t="s">
         <v>93</v>
       </c>
@@ -51904,7 +51910,7 @@
       <c r="M67" s="77"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="127" t="s">
+      <c r="A68" s="126" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="61" t="s">
@@ -51941,8 +51947,8 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="128"/>
-      <c r="B69" s="113" t="s">
+      <c r="A69" s="127"/>
+      <c r="B69" s="112" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="88" t="s">
@@ -51974,8 +51980,8 @@
       <c r="M69" s="57"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="128"/>
-      <c r="B70" s="113" t="s">
+      <c r="A70" s="127"/>
+      <c r="B70" s="112" t="s">
         <v>91</v>
       </c>
       <c r="C70" s="88" t="s">
@@ -52005,8 +52011,8 @@
       <c r="M70" s="57"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="128"/>
-      <c r="B71" s="113" t="s">
+      <c r="A71" s="127"/>
+      <c r="B71" s="112" t="s">
         <v>92</v>
       </c>
       <c r="C71" s="88" t="s">
@@ -52036,35 +52042,35 @@
       <c r="M71" s="57"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="129"/>
-      <c r="B72" s="114" t="s">
+      <c r="A72" s="128"/>
+      <c r="B72" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="115" t="s">
+      <c r="C72" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="116">
+      <c r="D72" s="115">
         <v>0.9</v>
       </c>
-      <c r="E72" s="115">
+      <c r="E72" s="114">
         <v>1</v>
       </c>
-      <c r="F72" s="115">
+      <c r="F72" s="114">
         <v>1</v>
       </c>
-      <c r="G72" s="115">
+      <c r="G72" s="114">
         <v>1</v>
       </c>
-      <c r="H72" s="115">
+      <c r="H72" s="114">
         <v>1</v>
       </c>
-      <c r="I72" s="115">
-        <v>0</v>
-      </c>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="117"/>
-      <c r="M72" s="117"/>
+      <c r="I72" s="114">
+        <v>0</v>
+      </c>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -52091,10 +52097,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52181,7 +52187,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="137" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2">
@@ -52253,7 +52259,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="137" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="65">
@@ -52325,7 +52331,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="137" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="65">
@@ -52397,7 +52403,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="137" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="65">
@@ -52469,7 +52475,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="137" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="65">
@@ -52541,7 +52547,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="137" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="65">
@@ -52613,7 +52619,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="137" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="65">
@@ -52684,12 +52690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
-        <v>101</v>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>106</v>
       </c>
       <c r="B9" s="65">
-        <v>43893</v>
+        <v>43909</v>
       </c>
       <c r="C9" s="65">
         <v>44256</v>
@@ -52701,7 +52707,8 @@
         <v>100000</v>
       </c>
       <c r="F9" s="64">
-        <v>12</v>
+        <f>ROUND(1933105/E9,0)</f>
+        <v>19</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -52713,7 +52720,7 @@
         <v>1.2</v>
       </c>
       <c r="J9" s="64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="64">
         <v>1.5E-3</v>
@@ -52734,13 +52741,11 @@
         <v>60</v>
       </c>
       <c r="Q9" s="64">
-        <v>300</v>
-      </c>
-      <c r="R9" s="64">
-        <v>8000</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="R9" s="64"/>
       <c r="S9" s="64">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="T9" s="64">
         <v>1</v>
@@ -52757,10 +52762,10 @@
     </row>
     <row r="10" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B10" s="65">
-        <v>43894</v>
+        <v>43917</v>
       </c>
       <c r="C10" s="65">
         <v>44256</v>
@@ -52772,7 +52777,8 @@
         <v>100000</v>
       </c>
       <c r="F10" s="64">
-        <v>8</v>
+        <f>ROUND(460671/E10,0)</f>
+        <v>5</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -52790,7 +52796,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="L10" s="64">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M10" s="64">
         <v>0.1</v>
@@ -52808,10 +52814,10 @@
         <v>500</v>
       </c>
       <c r="R10" s="64">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="S10" s="64">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="T10" s="64">
         <v>1</v>
@@ -52826,216 +52832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="65">
-        <v>43909</v>
-      </c>
-      <c r="C11" s="65">
-        <v>44256</v>
-      </c>
-      <c r="D11" s="64">
-        <v>3</v>
-      </c>
-      <c r="E11" s="64">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="64">
-        <f>ROUND(1933105/E11,0)</f>
-        <v>19</v>
-      </c>
-      <c r="G11" s="64">
-        <v>1</v>
-      </c>
-      <c r="H11" s="64">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="64">
-        <v>1.2</v>
-      </c>
-      <c r="J11" s="64">
-        <v>1</v>
-      </c>
-      <c r="K11" s="64">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L11" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="N11" s="64">
-        <v>0</v>
-      </c>
-      <c r="O11" s="64">
-        <v>50</v>
-      </c>
-      <c r="P11" s="64">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="64">
-        <v>1500</v>
-      </c>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64">
-        <v>8</v>
-      </c>
-      <c r="T11" s="64">
-        <v>1</v>
-      </c>
-      <c r="U11" s="64">
-        <v>0.7</v>
-      </c>
-      <c r="V11" s="64">
-        <v>3</v>
-      </c>
-      <c r="W11" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65">
-        <v>44256</v>
-      </c>
-      <c r="D12" s="64">
-        <v>3</v>
-      </c>
-      <c r="E12" s="64">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="64">
-        <f>ROUND(1483771/E12,0)</f>
-        <v>15</v>
-      </c>
-      <c r="G12" s="64">
-        <v>1</v>
-      </c>
-      <c r="H12" s="64">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="64">
-        <v>1.2</v>
-      </c>
-      <c r="J12" s="64">
-        <v>5</v>
-      </c>
-      <c r="K12" s="64">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L12" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="64">
-        <v>20</v>
-      </c>
-      <c r="O12" s="64">
-        <v>50</v>
-      </c>
-      <c r="P12" s="64">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64">
-        <v>1</v>
-      </c>
-      <c r="U12" s="64">
-        <v>0.7</v>
-      </c>
-      <c r="V12" s="64">
-        <v>3</v>
-      </c>
-      <c r="W12" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="65">
-        <v>43917</v>
-      </c>
-      <c r="C13" s="65">
-        <v>44256</v>
-      </c>
-      <c r="D13" s="64">
-        <v>3</v>
-      </c>
-      <c r="E13" s="64">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="64">
-        <f>ROUND(460671/E13,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="64">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="64">
-        <v>1.2</v>
-      </c>
-      <c r="J13" s="64">
-        <v>5</v>
-      </c>
-      <c r="K13" s="64">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L13" s="64">
-        <v>0.3</v>
-      </c>
-      <c r="M13" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="N13" s="64">
-        <v>20</v>
-      </c>
-      <c r="O13" s="64">
-        <v>50</v>
-      </c>
-      <c r="P13" s="64">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="64">
-        <v>500</v>
-      </c>
-      <c r="R13" s="64">
-        <v>6000</v>
-      </c>
-      <c r="S13" s="64">
-        <v>22</v>
-      </c>
-      <c r="T13" s="64">
-        <v>1</v>
-      </c>
-      <c r="U13" s="64">
-        <v>0.7</v>
-      </c>
-      <c r="V13" s="64">
-        <v>3</v>
-      </c>
-      <c r="W13" s="64">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -53449,7 +53249,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="64">
@@ -53895,7 +53695,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="64">
@@ -54340,7 +54140,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="64">
@@ -54786,7 +54586,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="64">
